--- a/attachments/DSJ_AE_Sourcing_Procurement_Purchasing_and_Logistics.xlsx
+++ b/attachments/DSJ_AE_Sourcing_Procurement_Purchasing_and_Logistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\DSJ AEs and ERBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC68FE29-9C14-49D2-9E0F-B11F4677A452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD9131C-BAF5-48A0-BD74-14629B054341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_E30BD9D3_88B7_4E4F_8462_579F359F9924_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$49</definedName>
+    <definedName name="Z_E30BD9D3_88B7_4E4F_8462_579F359F9924_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$50</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="187">
   <si>
     <t>First Name</t>
   </si>
@@ -599,13 +599,37 @@
   </si>
   <si>
     <t>Editorial Review Board Members</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Farahani</t>
+  </si>
+  <si>
+    <t>mfarahani@uh.edu</t>
+  </si>
+  <si>
+    <t>Decision and Information Sciences</t>
+  </si>
+  <si>
+    <t>Game Theory and Information Design</t>
+  </si>
+  <si>
+    <t>Socially-Responsible Operations Management</t>
+  </si>
+  <si>
+    <t>Supply Chain Contracting</t>
+  </si>
+  <si>
+    <t>Market Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -651,13 +675,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -687,25 +730,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,11 +982,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -947,7 +1003,7 @@
     <col min="13" max="16384" width="12.609375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +1041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -999,8 +1055,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="3"/>
@@ -1015,7 +1071,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1165,7 +1221,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1203,7 +1259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -1241,7 +1297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -1279,7 +1335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -1315,444 +1371,472 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
+    <row r="12" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L20" s="3"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>50</v>
@@ -1760,55 +1844,57 @@
     </row>
     <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>17</v>
@@ -1817,53 +1903,75 @@
         <v>18</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1875,8 +1983,8 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1902,71 +2010,84 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+    </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1975,21 +2096,21 @@
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="12"/>
+    </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2941,11 +3062,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{E30BD9D3-88B7-4E4F-8462-579F359F9924}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L48" xr:uid="{93EF4FD2-FF89-4DDF-8C8C-AF4006DF5CE8}"/>
+      <autoFilter ref="A1:L48" xr:uid="{170A7F82-6F5E-4541-8D6A-BBCAC8642D0C}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1905533167"/>
@@ -2954,8 +3076,8 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="K50:L50"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
